--- a/misc/kria-mappings.xlsx
+++ b/misc/kria-mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrzakopal/Documents/dp/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D54D3DA-D2DB-D445-95E9-C41BBB0AEDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC4F59-4040-5144-8012-A8E99AE3E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="11120" windowWidth="37220" windowHeight="23700" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
+    <workbookView xWindow="20840" yWindow="14920" windowWidth="37220" windowHeight="23700" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
   </bookViews>
   <sheets>
     <sheet name="Kria KR260 Starter Kit PMOD" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,372 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{06DCC7BA-0FF0-5F43-BE94-0F015C976A03}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PMOD pin physically on board connector</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{56646D5C-139D-6E41-9800-476AA443A328}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for this pin/section search in xdc file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in xdc file it is for example "som_240_1_a17"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{85ACD381-F05C-1D42-A2C0-8A14E6265CE6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin of PMOD comes straight out of schematics PMOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7386A149-0C93-5A41-B276-7DA426BD699C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin is connected in PMOD schematics as an input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{50A8BB3A-30C4-5A47-8C21-9DD5F74E4317}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FPGA Package Pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{F69C3293-72F5-4444-A806-0C6AA319598D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>implemented in linux</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{0BFE3B32-45D7-6D41-A7D8-056C6F259546}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PMOD pin physically on board connector</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A5190A2E-F28F-1240-85D2-62A3B4B3075C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for this pin/section search in xdc file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in xdc file it is for example "som_240_1_a17"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{5835F9EF-EE27-0D4B-B7A1-1CB668B99E87}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin of PMOD comes straight out of schematics PMOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{949FF536-B2FF-A74F-A308-5C09AEFE8940}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin is connected in PMOD schematics as an input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{45503471-5A94-8446-9F95-73352A2D8B7F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FPGA Package Pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{F03EC758-219C-2D49-A1E5-CB8809CC7207}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>implemented in linux</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{59EE0FFF-845E-2048-BAC8-122F245CD204}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PMOD pin physically on board connector</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{6FEA61A4-D145-574C-A77D-7597B59F32B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for this pin/section search in xdc file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in xdc file it is for example "som_240_1_a17"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{208E9C96-EC79-8B49-B7CC-5F92D8433332}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin of PMOD comes straight out of schematics PMOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{252BD6B6-D74D-4342-B4E8-278C51BF6629}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin is connected in PMOD schematics as an input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{C5B5263A-8A60-3941-8D11-94295BFCE8EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FPGA Package Pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{809EF317-FB17-4D4A-999A-99D64CDD33CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>implemented in linux</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{AA22DAEF-BA7B-0B43-B463-6F95B13CEE85}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PMOD pin physically on board connector</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{5EB83625-E57A-CC40-9BEB-4A12E521D5D8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for this pin/section search in xdc file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in xdc file it is for example "som_240_1_a17"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{CE0DD5EC-FD25-4940-BED0-D58DF21913B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin of PMOD comes straight out of schematics PMOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{C80A28D6-F66F-0441-AA0F-07306A6C0048}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin is connected in PMOD schematics as an input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{8F78D8CE-6135-9D40-AC1D-472430E32DF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FPGA Package Pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{24FB119D-3580-1340-919A-E146AB1C12FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>implemented in linux</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>FPGA Package Pin</t>
   </si>
@@ -44,23 +408,146 @@
     <t>Schematics Pin</t>
   </si>
   <si>
-    <t>Pin Numer</t>
-  </si>
-  <si>
-    <t>Physical Pin</t>
-  </si>
-  <si>
     <t>Output Schematics Pin</t>
   </si>
   <si>
     <t>PMOD 1</t>
+  </si>
+  <si>
+    <t>HDA11</t>
+  </si>
+  <si>
+    <t>A17/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>PMOD1_IO5_HDA15</t>
+  </si>
+  <si>
+    <t>PMOD1_IO6_HDA16_CC</t>
+  </si>
+  <si>
+    <t>PMOD1_IO3_HDA13</t>
+  </si>
+  <si>
+    <t>PMOD1_IO1_HDA11</t>
+  </si>
+  <si>
+    <t>PMOD1_IO2_HDA12</t>
+  </si>
+  <si>
+    <t>PMOD1_IO7_HDA17</t>
+  </si>
+  <si>
+    <t>PMOD1_IO4_HDA14</t>
+  </si>
+  <si>
+    <t>PMOD1_IO8_HDA18</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>3V2</t>
+  </si>
+  <si>
+    <t>HDA15</t>
+  </si>
+  <si>
+    <t>HDA12</t>
+  </si>
+  <si>
+    <t>HDA16</t>
+  </si>
+  <si>
+    <t>HDA13</t>
+  </si>
+  <si>
+    <t>HDA17</t>
+  </si>
+  <si>
+    <t>HDA14</t>
+  </si>
+  <si>
+    <t>HDA8</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>D20/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>B21/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B20/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D21/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>B22/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D22/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C22/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>Bank Pin</t>
+  </si>
+  <si>
+    <t>PMOD1 Example</t>
+  </si>
+  <si>
+    <t>PMOD 2</t>
+  </si>
+  <si>
+    <t>/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>PMOD 3</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>PMOD 4</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,13 +569,34 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -116,15 +630,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -142,6 +875,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8D1FF6-B09F-B459-773E-2C33ADA03CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4991100"/>
+          <a:ext cx="6756400" cy="3975100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,113 +1222,774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A97AAA-4FF4-3448-94BF-2DE0FFD72C7E}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A97AAA-4FF4-3448-94BF-2DE0FFD72C7E}">
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="O1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="16"/>
+      <c r="V1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="8"/>
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="10"/>
+      <c r="V4" s="9">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="9">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="10"/>
+      <c r="V5" s="9">
+        <v>3</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="9">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="10"/>
+      <c r="V6" s="9">
+        <v>4</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="9">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="10"/>
+      <c r="V7" s="9">
+        <v>5</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="9">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="9">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="10"/>
+      <c r="V8" s="9">
+        <v>6</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="H9" s="9">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="10"/>
+      <c r="O9" s="9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="10"/>
+      <c r="V9" s="9">
+        <v>7</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="9">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="10"/>
+      <c r="V10" s="9">
+        <v>8</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="9">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="O11" s="9">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="V11" s="9">
+        <v>9</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="O12" s="9">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="V12" s="9">
+        <v>10</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="H13" s="9">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="O13" s="9">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:27" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="H14" s="11">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="O14" s="11">
+        <v>12</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="V14" s="11">
+        <v>12</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="13"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/misc/kria-mappings.xlsx
+++ b/misc/kria-mappings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrzakopal/Documents/dp/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC4F59-4040-5144-8012-A8E99AE3E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0B26A-D924-A54D-BE28-B7259430C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="14920" windowWidth="37220" windowHeight="23700" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
+    <workbookView xWindow="2700" yWindow="24500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
   </bookViews>
   <sheets>
     <sheet name="Kria KR260 Starter Kit PMOD" sheetId="1" r:id="rId1"/>
+    <sheet name="Kria KR260 Starter Kit Rpi Hat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -399,8 +400,93 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7EFBD256-031C-0648-8FD9-3A03775A9ADF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PMOD pin physically on board connector</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F75EC03F-7A65-DE4F-B8E7-DE25A5D0570A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for this pin/section search in xdc file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in xdc file it is for example "som_240_1_a17"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{BFEB1D7D-006A-5445-9C42-15334DC0E083}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>this pin is connected in PMOD schematics as an input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{29EDC3AB-4329-9D4F-8289-7C92462C5E21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FPGA Package Pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2281DDF9-539E-3848-80B8-8464996789B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>implemented in linux</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="224">
   <si>
     <t>FPGA Package Pin</t>
   </si>
@@ -528,9 +614,6 @@
     <t>PMOD 2</t>
   </si>
   <si>
-    <t>/SOM240_1 CONNECTOR</t>
-  </si>
-  <si>
     <t>PMOD 3</t>
   </si>
   <si>
@@ -541,19 +624,559 @@
   </si>
   <si>
     <t>Pin Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMOD2_IO1_HDA02 </t>
+  </si>
+  <si>
+    <t>PMOD2_IO5_HDA06</t>
+  </si>
+  <si>
+    <t>PMOD2_IO2_HDA03</t>
+  </si>
+  <si>
+    <t>PMOD2_IO6_HDA07</t>
+  </si>
+  <si>
+    <t>PMOD2_IO3_HDA04</t>
+  </si>
+  <si>
+    <t>PMOD2_IO7_HDA08_CC</t>
+  </si>
+  <si>
+    <t>PMOD2_IO4_HDA05</t>
+  </si>
+  <si>
+    <t>PMOD2_IO8_HDA09</t>
+  </si>
+  <si>
+    <t>HDA02</t>
+  </si>
+  <si>
+    <t>HDA06</t>
+  </si>
+  <si>
+    <t>HDA03</t>
+  </si>
+  <si>
+    <t>HDA07</t>
+  </si>
+  <si>
+    <t>HDA04</t>
+  </si>
+  <si>
+    <t>HDA08</t>
+  </si>
+  <si>
+    <t>HDA05</t>
+  </si>
+  <si>
+    <t>HDA09</t>
+  </si>
+  <si>
+    <t>D18/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C18/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B16/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C19/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B17/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C20/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B18/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A15/SOM240_1 CONNECTOR</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMOD3_IO1_HDB00_CC </t>
+  </si>
+  <si>
+    <t>PMOD3_IO5_HDB04</t>
+  </si>
+  <si>
+    <t>PMOD3_IO2_HDB01</t>
+  </si>
+  <si>
+    <t>PMOD3_IO6_HDB05</t>
+  </si>
+  <si>
+    <t>PMOD3_IO3_HDB02</t>
+  </si>
+  <si>
+    <t>PMOD3_IO7_HDB06</t>
+  </si>
+  <si>
+    <t>PMOD3_IO4_HDB03</t>
+  </si>
+  <si>
+    <t>PMOD3_IO8_HDB07</t>
+  </si>
+  <si>
+    <t>HDB00</t>
+  </si>
+  <si>
+    <t>HDB04</t>
+  </si>
+  <si>
+    <t>HDB01</t>
+  </si>
+  <si>
+    <t>HDB05</t>
+  </si>
+  <si>
+    <t>HDB02</t>
+  </si>
+  <si>
+    <t>HDB06</t>
+  </si>
+  <si>
+    <t>HDB03</t>
+  </si>
+  <si>
+    <t>HDB07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMOD4_IO1_HDB08_CC </t>
+  </si>
+  <si>
+    <t>PMOD4_IO5_HDB12</t>
+  </si>
+  <si>
+    <t>PMOD4_IO2_HDB09</t>
+  </si>
+  <si>
+    <t>PMOD4_IO6_HDB13</t>
+  </si>
+  <si>
+    <t>PMOD4_IO7_HDB14</t>
+  </si>
+  <si>
+    <t>PMOD4_IO4_HDB11</t>
+  </si>
+  <si>
+    <t>PMOD4_IO8_HDB15</t>
+  </si>
+  <si>
+    <t>HDB08</t>
+  </si>
+  <si>
+    <t>HDB12</t>
+  </si>
+  <si>
+    <t>HDB09</t>
+  </si>
+  <si>
+    <t>HDB13</t>
+  </si>
+  <si>
+    <t>HDB14</t>
+  </si>
+  <si>
+    <t>HDB11</t>
+  </si>
+  <si>
+    <t>HDB15</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Expansion Header</t>
+  </si>
+  <si>
+    <t>HDC02</t>
+  </si>
+  <si>
+    <t>HDC03</t>
+  </si>
+  <si>
+    <t>HDC04</t>
+  </si>
+  <si>
+    <t>HDC14</t>
+  </si>
+  <si>
+    <t>HDC15</t>
+  </si>
+  <si>
+    <t>HDC17</t>
+  </si>
+  <si>
+    <t>HDC18</t>
+  </si>
+  <si>
+    <t>HDB23</t>
+  </si>
+  <si>
+    <t>HDC22</t>
+  </si>
+  <si>
+    <t>HDC23</t>
+  </si>
+  <si>
+    <t>HDB20</t>
+  </si>
+  <si>
+    <t>HDC10</t>
+  </si>
+  <si>
+    <t>HDC09</t>
+  </si>
+  <si>
+    <t>HDB21</t>
+  </si>
+  <si>
+    <t>HDC11</t>
+  </si>
+  <si>
+    <t>HDC08_CC</t>
+  </si>
+  <si>
+    <t>HDC07</t>
+  </si>
+  <si>
+    <t>HDC00_CC</t>
+  </si>
+  <si>
+    <t>HDC01</t>
+  </si>
+  <si>
+    <t>HDC05</t>
+  </si>
+  <si>
+    <t>HDC06</t>
+  </si>
+  <si>
+    <t>HDC12</t>
+  </si>
+  <si>
+    <t>HDC13</t>
+  </si>
+  <si>
+    <t>HDC19</t>
+  </si>
+  <si>
+    <t>HDC16_CC</t>
+  </si>
+  <si>
+    <t>HDB22</t>
+  </si>
+  <si>
+    <t>HDC20</t>
+  </si>
+  <si>
+    <t>HDC21</t>
+  </si>
+  <si>
+    <t>D44/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D49/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D45/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D50/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D46/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C46/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D48/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C47/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C48/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B44/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C50/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B45/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B46/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C52/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B48/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D54/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D56/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D57/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B54/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B56/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B58/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A54/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A52/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A59/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A60/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A48/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C59/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C58/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A50/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C60/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C56/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C55/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D52/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>D58/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>C54/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B52/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B53/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A55/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>B57/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A51/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A56/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>A58/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>AE12</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AG11</t>
+  </si>
+  <si>
+    <t>AG10</t>
+  </si>
+  <si>
+    <t>AH12</t>
+  </si>
+  <si>
+    <t>AH10</t>
+  </si>
+  <si>
+    <t>AH11</t>
+  </si>
+  <si>
+    <t>AC12</t>
+  </si>
+  <si>
+    <t>AD11</t>
+  </si>
+  <si>
+    <t>AD12</t>
+  </si>
+  <si>
+    <t>AD10</t>
+  </si>
+  <si>
+    <t>AA11</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AA10</t>
+  </si>
+  <si>
+    <t>AE15</t>
+  </si>
+  <si>
+    <t>AE14</t>
+  </si>
+  <si>
+    <t>AG14</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>AB14</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>AB9</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>AA12</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>AE13</t>
+  </si>
+  <si>
+    <t>AC13</t>
+  </si>
+  <si>
+    <t>AA8</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AC14</t>
+  </si>
+  <si>
+    <t>AH13</t>
+  </si>
+  <si>
+    <t>AD15</t>
+  </si>
+  <si>
+    <t>D53/SOM240_2 CONNECTOR</t>
+  </si>
+  <si>
+    <t>AD14</t>
+  </si>
+  <si>
+    <t>AH14</t>
+  </si>
+  <si>
+    <t>AG13</t>
+  </si>
+  <si>
+    <t>AA13</t>
+  </si>
+  <si>
+    <t>AB13</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>AB15</t>
+  </si>
+  <si>
+    <t>AB10</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>PMOD scheme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -581,6 +1204,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="18"/>
@@ -596,7 +1225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,8 +1250,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1858E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -665,10 +1306,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -680,10 +1321,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -695,10 +1336,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -710,7 +1351,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -725,7 +1366,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -740,7 +1381,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -755,8 +1396,49 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -765,11 +1447,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -781,9 +1480,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -796,10 +1493,75 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -821,51 +1583,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE1858E"/>
+      <color rgb="FFE70D3B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -883,14 +1693,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,8 +1723,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4991100"/>
+          <a:off x="0" y="4914900"/>
           <a:ext cx="6756400" cy="3975100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800848</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>145450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EE6CFA-B7C7-28F5-A13F-D629DE236841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10033000"/>
+          <a:ext cx="11494248" cy="5530250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,773 +2082,1734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A97AAA-4FF4-3448-94BF-2DE0FFD72C7E}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:34" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="O1" s="14" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="O1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="V1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="18"/>
+      <c r="AC1" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="44"/>
+    </row>
+    <row r="2" spans="1:34" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-    </row>
-    <row r="2" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="9"/>
+      <c r="AC3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="14">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="O5" s="10">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="V5" s="10">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="O6" s="10">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="V6" s="10">
+        <v>4</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="O7" s="10">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="V7" s="10">
+        <v>5</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="H8" s="10">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="O8" s="10">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="V8" s="10">
+        <v>6</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="H9" s="10">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="O9" s="10">
+        <v>7</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="V9" s="10">
+        <v>7</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="H10" s="10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="O10" s="10">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="V10" s="10">
+        <v>8</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="H11" s="38">
+        <v>9</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="O11" s="38">
+        <v>9</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="37"/>
+      <c r="V11" s="38">
+        <v>9</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="8"/>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="8"/>
-      <c r="V3" s="7">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="10"/>
-      <c r="V4" s="9">
-        <v>2</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="H12" s="38">
+        <v>10</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="O12" s="38">
+        <v>10</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="37"/>
+      <c r="V12" s="38">
+        <v>10</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="H5" s="9">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="10"/>
-      <c r="O5" s="9">
-        <v>3</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="10"/>
-      <c r="V5" s="9">
-        <v>3</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="9">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="10"/>
-      <c r="O6" s="9">
-        <v>4</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="10"/>
-      <c r="V6" s="9">
-        <v>4</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="9">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="10"/>
-      <c r="O7" s="9">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="10"/>
-      <c r="V7" s="9">
-        <v>5</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="H13" s="32">
+        <v>11</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="O13" s="32">
+        <v>11</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="30"/>
+      <c r="V13" s="32">
+        <v>11</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="30"/>
+    </row>
+    <row r="14" spans="1:34" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="9">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="10"/>
-      <c r="O8" s="9">
-        <v>6</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="10"/>
-      <c r="V8" s="9">
-        <v>6</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="9">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="10"/>
-      <c r="O9" s="9">
-        <v>7</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="10"/>
-      <c r="V9" s="9">
-        <v>7</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="9">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="10"/>
-      <c r="O10" s="9">
-        <v>8</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="10"/>
-      <c r="V10" s="9">
-        <v>8</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="9">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="O11" s="9">
-        <v>9</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="V11" s="9">
-        <v>9</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="9">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="O12" s="9">
-        <v>10</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="V12" s="9">
-        <v>10</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="9">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="F14" s="31"/>
+      <c r="H14" s="33">
+        <v>12</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="K14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="O13" s="9">
-        <v>11</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="L14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="M14" s="31"/>
+      <c r="O14" s="33">
+        <v>12</v>
+      </c>
+      <c r="P14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="Q14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="10"/>
-      <c r="V13" s="9">
-        <v>11</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X13" s="2" t="s">
+      <c r="R14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="S14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="T14" s="31"/>
+      <c r="V14" s="33">
+        <v>12</v>
+      </c>
+      <c r="W14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="X14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="Y14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="Z14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="H14" s="11">
-        <v>12</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="O14" s="11">
-        <v>12</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="V14" s="11">
-        <v>12</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA14" s="13"/>
+      <c r="AA14" s="31"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="V1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF42DB-59D8-DE49-8078-7CEAA4208E4E}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="I1" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1</v>
+      </c>
+      <c r="J2" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="I3" s="47">
+        <v>3</v>
+      </c>
+      <c r="J3" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="37"/>
+      <c r="I4" s="47">
+        <v>5</v>
+      </c>
+      <c r="J4" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="I5" s="47">
+        <v>7</v>
+      </c>
+      <c r="J5" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="37"/>
+      <c r="I6" s="52">
+        <v>9</v>
+      </c>
+      <c r="J6" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="I7" s="47">
+        <v>11</v>
+      </c>
+      <c r="J7" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="37"/>
+      <c r="I8" s="47">
+        <v>13</v>
+      </c>
+      <c r="J8" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="I9" s="47">
+        <v>15</v>
+      </c>
+      <c r="J9" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="I10" s="50">
+        <v>17</v>
+      </c>
+      <c r="J10" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="37"/>
+      <c r="I11" s="47">
+        <v>19</v>
+      </c>
+      <c r="J11" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="I12" s="47">
+        <v>21</v>
+      </c>
+      <c r="J12" s="48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="I13" s="47">
+        <v>23</v>
+      </c>
+      <c r="J13" s="48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="I14" s="52">
+        <v>25</v>
+      </c>
+      <c r="J14" s="48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="I15" s="47">
+        <v>27</v>
+      </c>
+      <c r="J15" s="48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="37"/>
+      <c r="I16" s="47">
+        <v>29</v>
+      </c>
+      <c r="J16" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="I17" s="47">
+        <v>31</v>
+      </c>
+      <c r="J17" s="48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="I18" s="47">
+        <v>33</v>
+      </c>
+      <c r="J18" s="51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="30"/>
+      <c r="I19" s="47">
+        <v>35</v>
+      </c>
+      <c r="J19" s="48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="I20" s="47">
+        <v>37</v>
+      </c>
+      <c r="J20" s="48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="I21" s="53">
+        <v>39</v>
+      </c>
+      <c r="J21" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="38">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="38">
+        <v>25</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="38">
+        <v>30</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="38">
+        <v>34</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
+        <v>39</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="37"/>
+    </row>
+    <row r="42" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/misc/kria-mappings.xlsx
+++ b/misc/kria-mappings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrzakopal/Documents/dp/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0B26A-D924-A54D-BE28-B7259430C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3A335-1C94-174F-8878-8A4D78EF082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="24500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
+    <workbookView xWindow="2700" yWindow="24500" windowWidth="33600" windowHeight="20500" xr2:uid="{A8F69414-AE93-6D47-AEF9-0476B678B523}"/>
   </bookViews>
   <sheets>
     <sheet name="Kria KR260 Starter Kit PMOD" sheetId="1" r:id="rId1"/>
     <sheet name="Kria KR260 Starter Kit Rpi Hat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1599,35 +1600,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1642,6 +1619,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,19 +1635,36 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2084,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A97AAA-4FF4-3448-94BF-2DE0FFD72C7E}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AH3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2119,46 +2120,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="O1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="V1" s="15" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="V1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="18"/>
-      <c r="AC1" s="42" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
+      <c r="AC1" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="44"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="43"/>
     </row>
     <row r="2" spans="1:34" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2233,10 +2234,10 @@
       <c r="AA2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="31" t="s">
         <v>15</v>
       </c>
       <c r="AE2" s="4">
@@ -2317,10 +2318,10 @@
         <v>187</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="40" t="s">
+      <c r="AD3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="AE3" s="13">
@@ -2425,7 +2426,7 @@
       <c r="I5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2491,7 +2492,7 @@
       <c r="I6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2557,7 +2558,7 @@
       <c r="I7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2623,7 +2624,7 @@
       <c r="I8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -2689,7 +2690,7 @@
       <c r="I9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -2755,7 +2756,7 @@
       <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -2802,265 +2803,265 @@
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="H11" s="38">
+      <c r="B11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="H11" s="30">
         <v>9</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="37"/>
-      <c r="O11" s="38">
+      <c r="I11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="O11" s="30">
         <v>9</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="37"/>
-      <c r="V11" s="38">
+      <c r="P11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="29"/>
+      <c r="V11" s="30">
         <v>9</v>
       </c>
-      <c r="W11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="X11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="37"/>
+      <c r="W11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="H12" s="38">
+      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="H12" s="30">
         <v>10</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="37"/>
-      <c r="O12" s="38">
+      <c r="I12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="O12" s="30">
         <v>10</v>
       </c>
-      <c r="P12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="T12" s="37"/>
-      <c r="V12" s="38">
+      <c r="P12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="V12" s="30">
         <v>10</v>
       </c>
-      <c r="W12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="37"/>
+      <c r="W12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="29"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="H13" s="32">
+      <c r="F13" s="22"/>
+      <c r="H13" s="24">
         <v>11</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="O13" s="32">
+      <c r="M13" s="22"/>
+      <c r="O13" s="24">
         <v>11</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="V13" s="32">
+      <c r="T13" s="22"/>
+      <c r="V13" s="24">
         <v>11</v>
       </c>
-      <c r="W13" s="28" t="s">
+      <c r="W13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="X13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Y13" s="28" t="s">
+      <c r="Y13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Z13" s="28" t="s">
+      <c r="Z13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AA13" s="30"/>
+      <c r="AA13" s="22"/>
     </row>
     <row r="14" spans="1:34" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="H14" s="33">
+      <c r="F14" s="23"/>
+      <c r="H14" s="25">
         <v>12</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="O14" s="33">
+      <c r="M14" s="23"/>
+      <c r="O14" s="25">
         <v>12</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="R14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="V14" s="33">
+      <c r="T14" s="23"/>
+      <c r="V14" s="25">
         <v>12</v>
       </c>
-      <c r="W14" s="29" t="s">
+      <c r="W14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="29" t="s">
+      <c r="X14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="29" t="s">
+      <c r="Z14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA14" s="31"/>
+      <c r="AA14" s="23"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -3087,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF42DB-59D8-DE49-8078-7CEAA4208E4E}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,72 +3103,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="I1" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="37">
         <v>1</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="I3" s="47">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="I3" s="34">
         <v>3</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="37"/>
-      <c r="I4" s="47">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="29"/>
+      <c r="I4" s="34">
         <v>5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="38">
         <v>6</v>
       </c>
     </row>
@@ -3185,27 +3186,27 @@
         <v>194</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="I5" s="47">
+      <c r="I5" s="34">
         <v>7</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="37"/>
-      <c r="I6" s="52">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="29"/>
+      <c r="I6" s="39">
         <v>9</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="35">
         <v>10</v>
       </c>
     </row>
@@ -3223,27 +3224,27 @@
         <v>195</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="I7" s="47">
+      <c r="I7" s="34">
         <v>11</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="35">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="37"/>
-      <c r="I8" s="47">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="29"/>
+      <c r="I8" s="34">
         <v>13</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="35">
         <v>14</v>
       </c>
     </row>
@@ -3261,10 +3262,10 @@
         <v>196</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="I9" s="47">
-        <v>15</v>
-      </c>
-      <c r="J9" s="48">
+      <c r="I9" s="34">
+        <v>15</v>
+      </c>
+      <c r="J9" s="35">
         <v>16</v>
       </c>
     </row>
@@ -3282,27 +3283,27 @@
         <v>197</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="I10" s="50">
+      <c r="I10" s="37">
         <v>17</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="35">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="37"/>
-      <c r="I11" s="47">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="29"/>
+      <c r="I11" s="34">
         <v>19</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="38">
         <v>20</v>
       </c>
     </row>
@@ -3320,10 +3321,10 @@
         <v>198</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="I12" s="47">
+      <c r="I12" s="34">
         <v>21</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="35">
         <v>22</v>
       </c>
     </row>
@@ -3341,10 +3342,10 @@
         <v>199</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="I13" s="47">
+      <c r="I13" s="34">
         <v>23</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="35">
         <v>24</v>
       </c>
     </row>
@@ -3362,10 +3363,10 @@
         <v>200</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="I14" s="52">
+      <c r="I14" s="39">
         <v>25</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="35">
         <v>26</v>
       </c>
     </row>
@@ -3383,27 +3384,27 @@
         <v>201</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="I15" s="47">
+      <c r="I15" s="34">
         <v>27</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="35">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="37"/>
-      <c r="I16" s="47">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="29"/>
+      <c r="I16" s="34">
         <v>29</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="38">
         <v>30</v>
       </c>
     </row>
@@ -3421,10 +3422,10 @@
         <v>202</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="I17" s="47">
+      <c r="I17" s="34">
         <v>31</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="35">
         <v>32</v>
       </c>
     </row>
@@ -3442,27 +3443,27 @@
         <v>203</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="I18" s="47">
+      <c r="I18" s="34">
         <v>33</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="38">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="30"/>
-      <c r="I19" s="47">
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="I19" s="34">
         <v>35</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="35">
         <v>36</v>
       </c>
     </row>
@@ -3480,10 +3481,10 @@
         <v>204</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="I20" s="47">
+      <c r="I20" s="34">
         <v>37</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="35">
         <v>38</v>
       </c>
     </row>
@@ -3501,23 +3502,23 @@
         <v>205</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="I21" s="53">
+      <c r="I21" s="40">
         <v>39</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="36">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="30">
         <v>20</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
@@ -3580,15 +3581,15 @@
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
+      <c r="A27" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3651,15 +3652,15 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
+      <c r="A32" s="30">
         <v>30</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -3707,15 +3708,15 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
+      <c r="A36" s="30">
         <v>34</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3778,15 +3779,15 @@
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="30">
         <v>39</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
